--- a/results/CO2_reduction_95_percent.xlsx
+++ b/results/CO2_reduction_95_percent.xlsx
@@ -588,28 +588,28 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.2642231213900009</v>
+        <v>0.2642231213900197</v>
       </c>
       <c r="E2">
-        <v>0.2537514178015767</v>
+        <v>0.2537514178015826</v>
       </c>
       <c r="F2">
-        <v>0.1767485276706313</v>
+        <v>0.1767485276706167</v>
       </c>
       <c r="G2">
-        <v>0.2441622324083482</v>
+        <v>0.2441622324082958</v>
       </c>
       <c r="H2">
-        <v>0.3514525396472773</v>
+        <v>0.3514525396472714</v>
       </c>
       <c r="I2">
-        <v>0.1555942174877733</v>
+        <v>0.1555942174877628</v>
       </c>
       <c r="J2">
-        <v>0.1648731255889925</v>
+        <v>0.1648731255890168</v>
       </c>
       <c r="K2">
-        <v>0.06598481800539893</v>
+        <v>0.06598481800541314</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -621,28 +621,28 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>0.2642231213900009</v>
+        <v>0.2642231213900197</v>
       </c>
       <c r="E3">
-        <v>0.2537514178015767</v>
+        <v>0.2537514178015826</v>
       </c>
       <c r="F3">
-        <v>0.1767485276706313</v>
+        <v>0.1767485276706167</v>
       </c>
       <c r="G3">
-        <v>0.2441622324083482</v>
+        <v>0.2441622324082958</v>
       </c>
       <c r="H3">
-        <v>0.3514525396472773</v>
+        <v>0.3514525396472714</v>
       </c>
       <c r="I3">
-        <v>0.1555942174877733</v>
+        <v>0.1555942174877628</v>
       </c>
       <c r="J3">
-        <v>0.1648731255889925</v>
+        <v>0.1648731255890168</v>
       </c>
       <c r="K3">
-        <v>0.06598481800539893</v>
+        <v>0.06598481800541314</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -654,28 +654,28 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>4884.879300979865</v>
+        <v>4884.879300980213</v>
       </c>
       <c r="E4">
-        <v>4691.281527113639</v>
+        <v>4691.281527113747</v>
       </c>
       <c r="F4">
-        <v>3267.674758192481</v>
+        <v>3267.674758192212</v>
       </c>
       <c r="G4">
-        <v>4513.999489893663</v>
+        <v>4513.999489892694</v>
       </c>
       <c r="H4">
-        <v>6497.55111198516</v>
+        <v>6497.551111985052</v>
       </c>
       <c r="I4">
-        <v>2876.580097758797</v>
+        <v>2876.580097758603</v>
       </c>
       <c r="J4">
-        <v>3048.125819726244</v>
+        <v>3048.125819726692</v>
       </c>
       <c r="K4">
-        <v>1219.907894350137</v>
+        <v>1219.9078943504</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -685,28 +685,28 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>4884.879300979865</v>
+        <v>4884.879300980213</v>
       </c>
       <c r="E5">
-        <v>4691.281527113639</v>
+        <v>4691.281527113747</v>
       </c>
       <c r="F5">
-        <v>3267.674758192481</v>
+        <v>3267.674758192212</v>
       </c>
       <c r="G5">
-        <v>4513.999489893663</v>
+        <v>4513.999489892694</v>
       </c>
       <c r="H5">
-        <v>6497.55111198516</v>
+        <v>6497.551111985052</v>
       </c>
       <c r="I5">
-        <v>2876.580097758797</v>
+        <v>2876.580097758603</v>
       </c>
       <c r="J5">
-        <v>3048.125819726244</v>
+        <v>3048.125819726692</v>
       </c>
       <c r="K5">
-        <v>1219.907894350137</v>
+        <v>1219.9078943504</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -720,28 +720,28 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>2.732673463475841</v>
+        <v>2.760762083197702</v>
       </c>
       <c r="E6">
-        <v>2.091655894742326</v>
+        <v>2.112630723652056</v>
       </c>
       <c r="F6">
-        <v>2.908527720351882</v>
+        <v>2.711246514969333</v>
       </c>
       <c r="G6">
-        <v>2.02375220474108</v>
+        <v>1.683092777396149</v>
       </c>
       <c r="H6">
-        <v>3.982672901237558</v>
+        <v>3.780703004688045</v>
       </c>
       <c r="I6">
-        <v>1.857779179570293</v>
+        <v>2.377975014336606</v>
       </c>
       <c r="J6">
-        <v>0.3408165039786788</v>
+        <v>0.6346071422057166</v>
       </c>
       <c r="K6">
-        <v>2.362122131902354</v>
+        <v>2.238982739554537</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -751,28 +751,28 @@
         <v>31</v>
       </c>
       <c r="D7">
-        <v>2.732673463475841</v>
+        <v>2.760762083197702</v>
       </c>
       <c r="E7">
-        <v>2.091655894742326</v>
+        <v>2.112630723652056</v>
       </c>
       <c r="F7">
-        <v>2.908527720351882</v>
+        <v>2.711246514969333</v>
       </c>
       <c r="G7">
-        <v>2.02375220474108</v>
+        <v>1.683092777396149</v>
       </c>
       <c r="H7">
-        <v>3.982672901237558</v>
+        <v>3.780703004688045</v>
       </c>
       <c r="I7">
-        <v>1.857779179570293</v>
+        <v>2.377975014336606</v>
       </c>
       <c r="J7">
-        <v>0.3408165039786788</v>
+        <v>0.6346071422057166</v>
       </c>
       <c r="K7">
-        <v>2.362122131902354</v>
+        <v>2.238982739554537</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -786,28 +786,28 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E8">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F8">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G8">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H8">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I8">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J8">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K8">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -817,28 +817,28 @@
         <v>33</v>
       </c>
       <c r="D9">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E9">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F9">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G9">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H9">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I9">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J9">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K9">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -912,22 +912,22 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E12">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F12">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G12">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H12">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K12">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -937,22 +937,22 @@
         <v>33</v>
       </c>
       <c r="D13">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E13">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F13">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G13">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H13">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K13">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -993,28 +993,28 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E15">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F15">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G15">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H15">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I15">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J15">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K15">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1024,28 +1024,28 @@
         <v>36</v>
       </c>
       <c r="D16">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E16">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F16">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G16">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H16">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I16">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J16">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K16">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1059,28 +1059,28 @@
         <v>27</v>
       </c>
       <c r="D17">
-        <v>0.450007421099753</v>
+        <v>0.4546329599693412</v>
       </c>
       <c r="E17">
-        <v>0.3444468164973682</v>
+        <v>0.347900880362615</v>
       </c>
       <c r="F17">
-        <v>0.4789665051922751</v>
+        <v>0.4464789037089162</v>
       </c>
       <c r="G17">
-        <v>0.3332646665518894</v>
+        <v>0.2771660245363723</v>
       </c>
       <c r="H17">
-        <v>0.655853099656533</v>
+        <v>0.6225933803739532</v>
       </c>
       <c r="I17">
-        <v>0.3059327902675457</v>
+        <v>0.3915968804703579</v>
       </c>
       <c r="J17">
-        <v>0.05612450886415059</v>
+        <v>0.1045049572488018</v>
       </c>
       <c r="K17">
-        <v>0.388986281422726</v>
+        <v>0.368708102881847</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1092,28 +1092,28 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>0.450007421099753</v>
+        <v>0.4546329599693412</v>
       </c>
       <c r="E18">
-        <v>0.3444468164973682</v>
+        <v>0.347900880362615</v>
       </c>
       <c r="F18">
-        <v>0.4789665051922751</v>
+        <v>0.4464789037089162</v>
       </c>
       <c r="G18">
-        <v>0.3332646665518894</v>
+        <v>0.2771660245363723</v>
       </c>
       <c r="H18">
-        <v>0.655853099656533</v>
+        <v>0.6225933803739532</v>
       </c>
       <c r="I18">
-        <v>0.3059327902675457</v>
+        <v>0.3915968804703579</v>
       </c>
       <c r="J18">
-        <v>0.05612450886415059</v>
+        <v>0.1045049572488018</v>
       </c>
       <c r="K18">
-        <v>0.388986281422726</v>
+        <v>0.368708102881847</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1125,28 +1125,28 @@
         <v>37</v>
       </c>
       <c r="D19">
-        <v>13595.39036555145</v>
+        <v>13735.13474227617</v>
       </c>
       <c r="E19">
-        <v>10406.24823254889</v>
+        <v>10510.60061518474</v>
       </c>
       <c r="F19">
-        <v>14470.28716592976</v>
+        <v>13488.78863168931</v>
       </c>
       <c r="G19">
-        <v>10068.4189290601</v>
+        <v>8373.595907443272</v>
       </c>
       <c r="H19">
-        <v>19814.29304098287</v>
+        <v>18809.46768501369</v>
       </c>
       <c r="I19">
-        <v>9242.682485424342</v>
+        <v>11830.72146436127</v>
       </c>
       <c r="J19">
-        <v>1695.604497406362</v>
+        <v>3157.249463710025</v>
       </c>
       <c r="K19">
-        <v>11751.85140249928</v>
+        <v>11139.21760972348</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1156,28 +1156,28 @@
         <v>38</v>
       </c>
       <c r="D20">
-        <v>13595.39036555145</v>
+        <v>13735.13474227617</v>
       </c>
       <c r="E20">
-        <v>10406.24823254889</v>
+        <v>10510.60061518474</v>
       </c>
       <c r="F20">
-        <v>14470.28716592976</v>
+        <v>13488.78863168931</v>
       </c>
       <c r="G20">
-        <v>10068.4189290601</v>
+        <v>8373.595907443272</v>
       </c>
       <c r="H20">
-        <v>19814.29304098287</v>
+        <v>18809.46768501369</v>
       </c>
       <c r="I20">
-        <v>9242.682485424342</v>
+        <v>11830.72146436127</v>
       </c>
       <c r="J20">
-        <v>1695.604497406362</v>
+        <v>3157.249463710025</v>
       </c>
       <c r="K20">
-        <v>11751.85140249928</v>
+        <v>11139.21760972348</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1203,7 +1203,7 @@
         <v>1.449701736904696</v>
       </c>
       <c r="H21">
-        <v>0.6863880204897062</v>
+        <v>0.6862395491807403</v>
       </c>
       <c r="I21">
         <v>1.469766618248552</v>
@@ -1236,7 +1236,7 @@
         <v>19.61940815223903</v>
       </c>
       <c r="H22">
-        <v>9.289170580389703</v>
+        <v>9.287161257274922</v>
       </c>
       <c r="I22">
         <v>19.89095442040581</v>
@@ -1269,7 +1269,7 @@
         <v>1.194649430925588</v>
       </c>
       <c r="H23">
-        <v>0.56562880294464</v>
+        <v>0.5655064528361663</v>
       </c>
       <c r="I23">
         <v>1.211184210783277</v>
@@ -1302,7 +1302,7 @@
         <v>12.75261529895537</v>
       </c>
       <c r="H24">
-        <v>6.037960877253307</v>
+        <v>6.0366548172287</v>
       </c>
       <c r="I24">
         <v>12.92912037326378</v>
@@ -1329,19 +1329,19 @@
         <v>27233.30516213613</v>
       </c>
       <c r="F25">
-        <v>35668.44967638617</v>
+        <v>35668.4496763863</v>
       </c>
       <c r="G25">
-        <v>21186.45417692669</v>
+        <v>21186.45417692672</v>
       </c>
       <c r="H25">
-        <v>10576.33804986859</v>
+        <v>10574.05030196581</v>
       </c>
       <c r="I25">
-        <v>20813.81130445475</v>
+        <v>20813.87682728202</v>
       </c>
       <c r="J25">
-        <v>13518.7416159621</v>
+        <v>13518.74161596223</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>27233.30516213613</v>
       </c>
       <c r="F26">
-        <v>35668.44967638617</v>
+        <v>35668.4496763863</v>
       </c>
       <c r="G26">
-        <v>21186.45417692669</v>
+        <v>21186.45417692672</v>
       </c>
       <c r="H26">
-        <v>10576.33804986859</v>
+        <v>10574.05030196581</v>
       </c>
       <c r="I26">
-        <v>20813.81130445475</v>
+        <v>20813.87682728202</v>
       </c>
       <c r="J26">
-        <v>13518.7416159621</v>
+        <v>13518.74161596223</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0.2550523059791074</v>
       </c>
       <c r="H27">
-        <v>0.1207592175450661</v>
+        <v>0.120733096344574</v>
       </c>
       <c r="I27">
         <v>0.2585824074652756</v>
@@ -1518,16 +1518,16 @@
         <v>32</v>
       </c>
       <c r="E32">
-        <v>15693.82279307422</v>
+        <v>15693.82279307446</v>
       </c>
       <c r="F32">
-        <v>219225.1546465888</v>
+        <v>219226.8244265502</v>
       </c>
       <c r="G32">
-        <v>21299.28981331926</v>
+        <v>21299.33250723188</v>
       </c>
       <c r="J32">
-        <v>82971.15113471502</v>
+        <v>82971.15113471374</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1537,16 +1537,16 @@
         <v>33</v>
       </c>
       <c r="E33">
-        <v>15693.82279307422</v>
+        <v>15693.82279307446</v>
       </c>
       <c r="F33">
-        <v>219225.1546465888</v>
+        <v>219226.8244265502</v>
       </c>
       <c r="G33">
-        <v>21299.28981331926</v>
+        <v>21299.33250723188</v>
       </c>
       <c r="J33">
-        <v>82971.15113471502</v>
+        <v>82971.15113471374</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>4.102301256396567</v>
+        <v>4.102412686588081</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>30.60563952480273</v>
+        <v>30.60647086118212</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.428977186850906</v>
+        <v>3.429070327642074</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>33.66620347728301</v>
+        <v>33.66711794730033</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>73684.74616053276</v>
+        <v>73685.63526075362</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>73684.74616053276</v>
+        <v>73685.63526075362</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.6733240695456602</v>
+        <v>0.6733423589460067</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -1880,28 +1880,28 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>0.3088938831366314</v>
+        <v>0.3080556779969878</v>
       </c>
       <c r="E2">
-        <v>0.2776553716184877</v>
+        <v>0.2764268116585278</v>
       </c>
       <c r="F2">
-        <v>0.2554909308087293</v>
+        <v>0.2343375059265013</v>
       </c>
       <c r="G2">
-        <v>0.2630693860250616</v>
+        <v>0.2000828147219467</v>
       </c>
       <c r="H2">
-        <v>0.2972563867714898</v>
+        <v>0.2899314406958847</v>
       </c>
       <c r="I2">
-        <v>0.1872074395037935</v>
+        <v>0.2347011751065489</v>
       </c>
       <c r="J2">
-        <v>0.0686959963916632</v>
+        <v>0.1354879332333218</v>
       </c>
       <c r="K2">
-        <v>0.2234569675109489</v>
+        <v>0.2027006473581544</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1913,28 +1913,28 @@
         <v>34</v>
       </c>
       <c r="D3">
-        <v>3.988117252526098</v>
+        <v>3.977295217642713</v>
       </c>
       <c r="E3">
-        <v>3.584798010773298</v>
+        <v>3.568936119555752</v>
       </c>
       <c r="F3">
-        <v>3.298633753040515</v>
+        <v>3.025522683743256</v>
       </c>
       <c r="G3">
-        <v>3.396478901959773</v>
+        <v>2.583261660036252</v>
       </c>
       <c r="H3">
-        <v>3.83786597671983</v>
+        <v>3.743293874736761</v>
       </c>
       <c r="I3">
-        <v>2.417028177136394</v>
+        <v>3.03021800278432</v>
       </c>
       <c r="J3">
-        <v>0.886931413490891</v>
+        <v>1.749279586083316</v>
       </c>
       <c r="K3">
-        <v>2.885044463419793</v>
+        <v>2.617060398278238</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1946,28 +1946,28 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>0.2251434208335834</v>
+        <v>0.2245324784264908</v>
       </c>
       <c r="E4">
-        <v>0.2023746133922484</v>
+        <v>0.201479153147857</v>
       </c>
       <c r="F4">
-        <v>0.1862196219948785</v>
+        <v>0.170801529567893</v>
       </c>
       <c r="G4">
-        <v>0.1917433290839064</v>
+        <v>0.1458343198611854</v>
       </c>
       <c r="H4">
-        <v>0.2166612012603734</v>
+        <v>0.2113222693264127</v>
       </c>
       <c r="I4">
-        <v>0.1364498477839292</v>
+        <v>0.1710665970480782</v>
       </c>
       <c r="J4">
-        <v>0.05007043670835449</v>
+        <v>0.09875306192557216</v>
       </c>
       <c r="K4">
-        <v>0.1628710337791332</v>
+        <v>0.1477423789943114</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1979,28 +1979,28 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>2.592276214141964</v>
+        <v>2.585241891467764</v>
       </c>
       <c r="E5">
-        <v>2.330118707002644</v>
+        <v>2.319808477711239</v>
       </c>
       <c r="F5">
-        <v>2.144111939476335</v>
+        <v>1.966589744433116</v>
       </c>
       <c r="G5">
-        <v>2.207711286273852</v>
+        <v>1.679120079023564</v>
       </c>
       <c r="H5">
-        <v>2.49461288486789</v>
+        <v>2.433141018578894</v>
       </c>
       <c r="I5">
-        <v>1.571068315138656</v>
+        <v>1.969641701809808</v>
       </c>
       <c r="J5">
-        <v>0.5765054187690791</v>
+        <v>1.137031730954155</v>
       </c>
       <c r="K5">
-        <v>1.875278901222865</v>
+        <v>1.701089258880855</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2012,28 +2012,28 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>8157.23421933087</v>
+        <v>8241.080845365879</v>
       </c>
       <c r="E6">
-        <v>6243.748939529332</v>
+        <v>6306.360369110548</v>
       </c>
       <c r="F6">
-        <v>8682.172299557855</v>
+        <v>8093.273179013641</v>
       </c>
       <c r="G6">
-        <v>6041.05135743606</v>
+        <v>5024.157544466145</v>
       </c>
       <c r="H6">
-        <v>11888.57582458973</v>
+        <v>11285.68061100925</v>
       </c>
       <c r="I6">
-        <v>5545.609491254606</v>
+        <v>7098.432878616992</v>
       </c>
       <c r="J6">
-        <v>1017.362698443817</v>
+        <v>1894.349678225974</v>
       </c>
       <c r="K6">
-        <v>7051.110841499566</v>
+        <v>6683.530565834311</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2043,28 +2043,28 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>8157.23421933087</v>
+        <v>8241.080845365879</v>
       </c>
       <c r="E7">
-        <v>6243.748939529332</v>
+        <v>6306.360369110548</v>
       </c>
       <c r="F7">
-        <v>8682.172299557855</v>
+        <v>8093.273179013641</v>
       </c>
       <c r="G7">
-        <v>6041.05135743606</v>
+        <v>5024.157544466145</v>
       </c>
       <c r="H7">
-        <v>11888.57582458973</v>
+        <v>11285.68061100925</v>
       </c>
       <c r="I7">
-        <v>5545.609491254606</v>
+        <v>7098.432878616992</v>
       </c>
       <c r="J7">
-        <v>1017.362698443817</v>
+        <v>1894.349678225974</v>
       </c>
       <c r="K7">
-        <v>7051.110841499566</v>
+        <v>6683.530565834311</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2076,28 +2076,28 @@
         <v>27</v>
       </c>
       <c r="D8">
-        <v>0.08375046230304806</v>
+        <v>0.08352319957049699</v>
       </c>
       <c r="E8">
-        <v>0.07528075822623927</v>
+        <v>0.0749476585106708</v>
       </c>
       <c r="F8">
-        <v>0.06927130881385082</v>
+        <v>0.06353597635860837</v>
       </c>
       <c r="G8">
-        <v>0.07132605694115524</v>
+        <v>0.05424849486076129</v>
       </c>
       <c r="H8">
-        <v>0.08059518551111644</v>
+        <v>0.07860917136947199</v>
       </c>
       <c r="I8">
-        <v>0.05075759171986427</v>
+        <v>0.06363457805847073</v>
       </c>
       <c r="J8">
-        <v>0.01862555968330871</v>
+        <v>0.03673487130774963</v>
       </c>
       <c r="K8">
-        <v>0.06058593373181566</v>
+        <v>0.05495826836384301</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3890902964547348</v>
+        <v>0.3891468595693982</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.585283861303286</v>
+        <v>1.585227298188623</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.471544441896343</v>
+        <v>4.472194482473798</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.21856598179994</v>
+        <v>18.21791594122248</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3331959909310305</v>
+        <v>0.3332444285384757</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.357551786530787</v>
+        <v>1.357503348923342</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.235772220948172</v>
+        <v>2.236097241236899</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.109282990899969</v>
+        <v>9.10895797061124</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18313.09239362611</v>
+        <v>18409.28889954103</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>81069.59126216343</v>
+        <v>80973.39475624358</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18313.09239362611</v>
+        <v>18409.28889954103</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>81069.59126216343</v>
+        <v>80973.39475624358</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05589430552370429</v>
+        <v>0.05590243103092248</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2277320747724992</v>
+        <v>0.227723949265281</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2342,28 +2342,28 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>0.06695827720692324</v>
+        <v>0.07829862598430484</v>
       </c>
       <c r="E16">
-        <v>0.1157611557970225</v>
+        <v>0.1161173839527492</v>
       </c>
       <c r="F16">
-        <v>0.106058944507719</v>
+        <v>0.1066274782969557</v>
       </c>
       <c r="G16">
-        <v>0.06624396844926773</v>
+        <v>0.06606584998137299</v>
       </c>
       <c r="H16">
-        <v>0.05672167528329281</v>
+        <v>0.03822248963867147</v>
       </c>
       <c r="I16">
-        <v>0.04210095938721715</v>
+        <v>0.04227907785511317</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.008104605848521601</v>
+        <v>0.01435245865659243</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2375,28 +2375,28 @@
         <v>34</v>
       </c>
       <c r="D17">
-        <v>0.8185994475077587</v>
+        <v>0.9572410558487513</v>
       </c>
       <c r="E17">
-        <v>1.415239790077875</v>
+        <v>1.419594862872884</v>
       </c>
       <c r="F17">
-        <v>1.296625256784504</v>
+        <v>1.303575875366287</v>
       </c>
       <c r="G17">
-        <v>0.8098666548082134</v>
+        <v>0.8076890647403123</v>
       </c>
       <c r="H17">
-        <v>0.6934517132979199</v>
+        <v>0.4672896347660561</v>
       </c>
       <c r="I17">
-        <v>0.5147059263101698</v>
+        <v>0.5168835163780864</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.09908298341316876</v>
+        <v>0.1754662039818689</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2408,28 +2408,28 @@
         <v>27</v>
       </c>
       <c r="D18">
-        <v>0.04976768880926031</v>
+        <v>0.05819656381148106</v>
       </c>
       <c r="E18">
-        <v>0.08604112020538714</v>
+        <v>0.08630589183241863</v>
       </c>
       <c r="F18">
-        <v>0.07882981411524446</v>
+        <v>0.07925238491426369</v>
       </c>
       <c r="G18">
-        <v>0.04923676869829526</v>
+        <v>0.04910437962182644</v>
       </c>
       <c r="H18">
-        <v>0.04215918930403648</v>
+        <v>0.02840940730858429</v>
       </c>
       <c r="I18">
-        <v>0.03129213493470359</v>
+        <v>0.03142452401117336</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.006023863196845056</v>
+        <v>0.01066766837297319</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2441,28 +2441,28 @@
         <v>39</v>
       </c>
       <c r="D19">
-        <v>0.573019613255431</v>
+        <v>0.6700687390941259</v>
       </c>
       <c r="E19">
-        <v>0.9906678530545124</v>
+        <v>0.9937164040110191</v>
       </c>
       <c r="F19">
-        <v>0.9076376797491528</v>
+        <v>0.9125031127564011</v>
       </c>
       <c r="G19">
-        <v>0.5669066583657494</v>
+        <v>0.5653823453182186</v>
       </c>
       <c r="H19">
-        <v>0.4854161993085439</v>
+        <v>0.3271027443362392</v>
       </c>
       <c r="I19">
-        <v>0.3602941484171188</v>
+        <v>0.3618184614646605</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.06935808838921813</v>
+        <v>0.1228263427873082</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2474,28 +2474,28 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>2484.533581852762</v>
+        <v>2894.912742542231</v>
       </c>
       <c r="E20">
-        <v>4875.826628509128</v>
+        <v>4875.826628509239</v>
       </c>
       <c r="F20">
-        <v>4372.763397097614</v>
+        <v>4443.457810777659</v>
       </c>
       <c r="G20">
-        <v>2843.819678633008</v>
+        <v>2843.819678633106</v>
       </c>
       <c r="H20">
-        <v>2711.294185519864</v>
+        <v>2011.214588033176</v>
       </c>
       <c r="I20">
-        <v>1812.245461588031</v>
+        <v>1812.245461588129</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>429.51706679958</v>
+        <v>648.5230899169214</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2505,28 +2505,28 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>2484.533581852762</v>
+        <v>2894.912742542231</v>
       </c>
       <c r="E21">
-        <v>4875.826628509128</v>
+        <v>4875.826628509239</v>
       </c>
       <c r="F21">
-        <v>4372.763397097614</v>
+        <v>4443.457810777659</v>
       </c>
       <c r="G21">
-        <v>2843.819678633008</v>
+        <v>2843.819678633106</v>
       </c>
       <c r="H21">
-        <v>2711.294185519864</v>
+        <v>2011.214588033176</v>
       </c>
       <c r="I21">
-        <v>1812.245461588031</v>
+        <v>1812.245461588129</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>429.51706679958</v>
+        <v>648.5230899169214</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2538,28 +2538,28 @@
         <v>27</v>
       </c>
       <c r="D22">
-        <v>0.01719058839766293</v>
+        <v>0.02010206217282378</v>
       </c>
       <c r="E22">
-        <v>0.02972003559163538</v>
+        <v>0.02981149212033058</v>
       </c>
       <c r="F22">
-        <v>0.02722913039247458</v>
+        <v>0.02737509338269204</v>
       </c>
       <c r="G22">
-        <v>0.01700719975097248</v>
+        <v>0.01696147035954656</v>
       </c>
       <c r="H22">
-        <v>0.01456248597925632</v>
+        <v>0.009813082330087177</v>
       </c>
       <c r="I22">
-        <v>0.01080882445251357</v>
+        <v>0.01085455384393982</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.002080742651676544</v>
+        <v>0.003684790283619246</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.03419382272502652</v>
+        <v>0.03417307035826578</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0401377919008633</v>
+        <v>0.04014413552211994</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.035002297179102</v>
+        <v>2.033767246206017</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.388750137087523</v>
+        <v>2.389127669717715</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.03012381813066832</v>
+        <v>0.03010553586585375</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03536029162668825</v>
+        <v>0.03536588018268452</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3072853468740444</v>
+        <v>0.3070988541771086</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3607012707002159</v>
+        <v>0.3607582781273749</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>650.4563374548893</v>
+        <v>650.0500084929351</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>813.0582215259789</v>
+        <v>823.4288939526488</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>650.4563374548893</v>
+        <v>650.0500084929351</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>813.0582215259789</v>
+        <v>823.4288939526488</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>586.8271504279815</v>
+        <v>586.4563642215422</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>733.6085363469942</v>
+        <v>742.9656476439604</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>586.8271504279815</v>
+        <v>586.4563642215422</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>733.6085363469942</v>
+        <v>742.9656476439604</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.004070004594358204</v>
+        <v>0.004067534492412035</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.004777500274175045</v>
+        <v>0.00477825533943543</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2987,25 +2987,25 @@
         <v>32</v>
       </c>
       <c r="D13">
-        <v>5498.275119218693</v>
+        <v>5477.69714010277</v>
       </c>
       <c r="E13">
-        <v>3066.932210462129</v>
+        <v>3058.271588212162</v>
       </c>
       <c r="F13">
-        <v>324.0583523737632</v>
+        <v>324.0347965550632</v>
       </c>
       <c r="G13">
-        <v>6207.472141654937</v>
+        <v>6260.344098004801</v>
       </c>
       <c r="H13">
-        <v>2506.563071588026</v>
+        <v>2503.144816525093</v>
       </c>
       <c r="I13">
-        <v>8038.067313957461</v>
+        <v>8016.184904391671</v>
       </c>
       <c r="J13">
-        <v>236.96834188788</v>
+        <v>237.7558567237975</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3015,25 +3015,25 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>5498.275119218693</v>
+        <v>5477.69714010277</v>
       </c>
       <c r="E14">
-        <v>3066.932210462129</v>
+        <v>3058.271588212162</v>
       </c>
       <c r="F14">
-        <v>324.0583523737632</v>
+        <v>324.0347965550632</v>
       </c>
       <c r="G14">
-        <v>6207.472141654937</v>
+        <v>6260.344098004801</v>
       </c>
       <c r="H14">
-        <v>2506.563071588026</v>
+        <v>2503.144816525093</v>
       </c>
       <c r="I14">
-        <v>8038.067313957461</v>
+        <v>8016.184904391671</v>
       </c>
       <c r="J14">
-        <v>236.96834188788</v>
+        <v>237.7558567237975</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3045,25 +3045,25 @@
         <v>32</v>
       </c>
       <c r="D15">
-        <v>4257.621326735257</v>
+        <v>4241.678855383043</v>
       </c>
       <c r="E15">
-        <v>2374.938063193118</v>
+        <v>2368.228108412458</v>
       </c>
       <c r="F15">
-        <v>250.9406803621317</v>
+        <v>250.922533727086</v>
       </c>
       <c r="G15">
-        <v>4806.785096292408</v>
+        <v>4847.736551407726</v>
       </c>
       <c r="H15">
-        <v>1940.978158263992</v>
+        <v>1938.329058347875</v>
       </c>
       <c r="I15">
-        <v>6224.339326058515</v>
+        <v>6207.402032614493</v>
       </c>
       <c r="J15">
-        <v>183.4989893804583</v>
+        <v>184.1089220090892</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3073,25 +3073,25 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>4257.621326735257</v>
+        <v>4241.678855383043</v>
       </c>
       <c r="E16">
-        <v>2374.938063193118</v>
+        <v>2368.228108412458</v>
       </c>
       <c r="F16">
-        <v>250.9406803621317</v>
+        <v>250.922533727086</v>
       </c>
       <c r="G16">
-        <v>4806.785096292408</v>
+        <v>4847.736551407726</v>
       </c>
       <c r="H16">
-        <v>1940.978158263992</v>
+        <v>1938.329058347875</v>
       </c>
       <c r="I16">
-        <v>6224.339326058515</v>
+        <v>6207.402032614493</v>
       </c>
       <c r="J16">
-        <v>183.4989893804583</v>
+        <v>184.1089220090892</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3138,19 +3138,19 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.008688564294987934</v>
+        <v>0.008732633279322201</v>
       </c>
       <c r="F18">
-        <v>0.01787443387162854</v>
+        <v>0.01783206934951466</v>
       </c>
       <c r="G18">
-        <v>0.004910039690069737</v>
+        <v>0.004888004654811683</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.003114917699761389</v>
+        <v>0.00313695273501944</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3168,16 +3168,16 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>641.0759164427734</v>
+        <v>644.3274967452969</v>
       </c>
       <c r="F19">
-        <v>1318.844942168426</v>
+        <v>1315.719123688325</v>
       </c>
       <c r="G19">
-        <v>362.2817403673502</v>
+        <v>360.6559101447374</v>
       </c>
       <c r="I19">
-        <v>229.8306890783182</v>
+        <v>231.4565193009307</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3192,16 +3192,16 @@
         <v>27</v>
       </c>
       <c r="E20">
-        <v>0.002277805130560199</v>
+        <v>0.00228935831186923</v>
       </c>
       <c r="F20">
-        <v>0.004685984449944273</v>
+        <v>0.004674878112631399</v>
       </c>
       <c r="G20">
-        <v>0.001287222286396235</v>
+        <v>0.001281445553364309</v>
       </c>
       <c r="I20">
-        <v>0.0008166108089782077</v>
+        <v>0.0008223875420101328</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3216,16 +3216,16 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>0.02564303665771094</v>
+        <v>0.02577309986981188</v>
       </c>
       <c r="F21">
-        <v>0.05275379768673705</v>
+        <v>0.05262876494753303</v>
       </c>
       <c r="G21">
-        <v>0.01449126961469401</v>
+        <v>0.0144262364057895</v>
       </c>
       <c r="I21">
-        <v>0.009193227563132728</v>
+        <v>0.009258260772037228</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>4238.120666985266</v>
+        <v>4023.56317514808</v>
       </c>
       <c r="F22">
-        <v>8175.469801337455</v>
+        <v>8272.236185769738</v>
       </c>
       <c r="G22">
-        <v>2455.064991560809</v>
+        <v>2469.628247371638</v>
       </c>
       <c r="I22">
-        <v>1464.362773013703</v>
+        <v>1547.917575520192</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3262,16 +3262,16 @@
         <v>29</v>
       </c>
       <c r="E23">
-        <v>4238.120666985266</v>
+        <v>4023.56317514808</v>
       </c>
       <c r="F23">
-        <v>8175.469801337455</v>
+        <v>8272.236185769738</v>
       </c>
       <c r="G23">
-        <v>2455.064991560809</v>
+        <v>2469.628247371638</v>
       </c>
       <c r="I23">
-        <v>1464.362773013703</v>
+        <v>1547.917575520192</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3286,16 +3286,16 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>4238.120666985259</v>
+        <v>4023.563175147659</v>
       </c>
       <c r="F24">
-        <v>8175.469801337453</v>
+        <v>8272.236185769096</v>
       </c>
       <c r="G24">
-        <v>2455.064991560808</v>
+        <v>2469.628247371704</v>
       </c>
       <c r="I24">
-        <v>1464.362773013684</v>
+        <v>1547.917575520259</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>4238.120666985259</v>
+        <v>4023.563175147659</v>
       </c>
       <c r="F25">
-        <v>8175.469801337453</v>
+        <v>8272.236185769096</v>
       </c>
       <c r="G25">
-        <v>2455.064991560808</v>
+        <v>2469.628247371704</v>
       </c>
       <c r="I25">
-        <v>1464.362773013684</v>
+        <v>1547.917575520259</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3332,16 +3332,16 @@
         <v>27</v>
       </c>
       <c r="E26">
-        <v>0.006410759164427735</v>
+        <v>0.00644327496745297</v>
       </c>
       <c r="F26">
-        <v>0.01318844942168426</v>
+        <v>0.01315719123688326</v>
       </c>
       <c r="G26">
-        <v>0.003622817403673503</v>
+        <v>0.003606559101447374</v>
       </c>
       <c r="I26">
-        <v>0.002298306890783182</v>
+        <v>0.002314565193009307</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1.034206378468146</v>
+        <v>1.034158539180826</v>
       </c>
       <c r="F27">
-        <v>0.4988975962233903</v>
+        <v>0.4989454355107103</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>36</v>
       </c>
       <c r="E28">
-        <v>1783.818692110215</v>
+        <v>1783.736178004022</v>
       </c>
       <c r="F28">
-        <v>860.5079954257401</v>
+        <v>860.5905095319333</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>27</v>
       </c>
       <c r="E29">
-        <v>0.01742972396532304</v>
+        <v>0.01742891771853319</v>
       </c>
       <c r="F29">
-        <v>0.008408038830718462</v>
+        <v>0.008408845077508317</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>0.1962200561321237</v>
+        <v>0.1962109795804425</v>
       </c>
       <c r="F30">
-        <v>0.09465587949683141</v>
+        <v>0.09466495604851267</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3463,10 +3463,10 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <v>13192.16727807745</v>
+        <v>13197.12281580601</v>
       </c>
       <c r="F31">
-        <v>6299.912982034643</v>
+        <v>6426.900411962133</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>12320.607680869</v>
+        <v>12540.37269257542</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3485,10 +3485,10 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>13192.16727807745</v>
+        <v>13197.12281580601</v>
       </c>
       <c r="F32">
-        <v>6299.912982034643</v>
+        <v>6426.900411962133</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>12320.607680869</v>
+        <v>12540.37269257542</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3509,10 +3509,10 @@
         <v>35</v>
       </c>
       <c r="E33">
-        <v>13192.16727807746</v>
+        <v>13197.1228158064</v>
       </c>
       <c r="F33">
-        <v>6299.912982034682</v>
+        <v>6426.900411962046</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>12320.607680869</v>
+        <v>12540.37269257545</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3531,10 +3531,10 @@
         <v>36</v>
       </c>
       <c r="E34">
-        <v>13192.16727807746</v>
+        <v>13197.1228158064</v>
       </c>
       <c r="F34">
-        <v>6299.912982034682</v>
+        <v>6426.900411962046</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>12320.607680869</v>
+        <v>12540.37269257545</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3555,10 +3555,10 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>1.016776654502823</v>
+        <v>1.016729621462293</v>
       </c>
       <c r="F35">
-        <v>0.4904895573926719</v>
+        <v>0.490536590433202</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01370455871991791</v>
+        <v>0.0137045587199179</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006891626312578053</v>
+        <v>0.006891626312578046</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3674,13 +3674,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01370455871991791</v>
+        <v>0.0137045587199179</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.003624578312958523</v>
+        <v>0.003624163288936157</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02403285733643071</v>
+        <v>0.02403182733622385</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.003624578312958523</v>
+        <v>0.003624163288936157</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005462223194557392</v>
+        <v>0.005462223194557398</v>
       </c>
       <c r="J5">
-        <v>0.008895785414216054</v>
+        <v>0.008895785414216026</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>0.006891626312578053</v>
+        <v>0.006891626312578046</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.005462223194557392</v>
+        <v>0.005462223194557398</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3832,13 +3832,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02403285733643071</v>
+        <v>0.02403182733622385</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.008895785414216054</v>
+        <v>0.008895785414216026</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.126326573359066</v>
+        <v>3.126326573359063</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.150487160399343</v>
+        <v>1.15048716039934</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3917,10 +3917,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>3.126326573359066</v>
+        <v>3.126326573359063</v>
       </c>
       <c r="F11">
-        <v>0.5774968858707887</v>
+        <v>0.57721728129503</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.75271023588126</v>
+        <v>8.752255207477051</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5774968858707887</v>
+        <v>0.57721728129503</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3958,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6560985812908261</v>
+        <v>0.6560985812908285</v>
       </c>
       <c r="J13">
-        <v>1.257026876309641</v>
+        <v>1.257026876309631</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3971,7 +3971,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>1.150487160399343</v>
+        <v>1.15048716039934</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6560985812908261</v>
+        <v>0.6560985812908285</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -4003,10 +4003,10 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>8.75271023588126</v>
+        <v>8.752255207477051</v>
       </c>
       <c r="G16">
-        <v>1.257026876309641</v>
+        <v>1.257026876309631</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.008584895860307178</v>
+        <v>0.00858489586030717</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.002629852905118307</v>
+        <v>0.0026298529051183</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.008584895860307178</v>
+        <v>0.00858489586030717</v>
       </c>
       <c r="F19">
-        <v>0.0008571929834392069</v>
+        <v>0.0008567779594168411</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01981259470891376</v>
+        <v>0.01981156470870689</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0008571929834392069</v>
+        <v>0.0008567779594168411</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -4096,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001421840613459191</v>
+        <v>0.001421840613459197</v>
       </c>
       <c r="J21">
-        <v>0.003582405581538968</v>
+        <v>0.003582405581538939</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4109,7 +4109,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>0.002629852905118307</v>
+        <v>0.0026298529051183</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.001421840613459191</v>
+        <v>0.001421840613459197</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <v>0.01981259470891376</v>
+        <v>0.01981156470870689</v>
       </c>
       <c r="G24">
-        <v>0.003582405581538968</v>
+        <v>0.003582405581538939</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4309,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.1634215636446426</v>
+        <v>0.1634215636446425</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.08217997901816528</v>
+        <v>0.08217997901816519</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.1634215636446426</v>
+        <v>0.1634215636446425</v>
       </c>
       <c r="F35">
-        <v>0.04322169487991296</v>
+        <v>0.04321674587892203</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.2865825310420249</v>
+        <v>0.2865702486878243</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.04322169487991296</v>
+        <v>0.04321674587892203</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -4372,10 +4372,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0.06513489953771753</v>
+        <v>0.06513489953771759</v>
       </c>
       <c r="J37">
-        <v>0.1060788013645068</v>
+        <v>0.1060788013645065</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -4385,7 +4385,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>0.08217997901816528</v>
+        <v>0.08217997901816519</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.06513489953771753</v>
+        <v>0.06513489953771759</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>0.2865825310420249</v>
+        <v>0.2865702486878243</v>
       </c>
       <c r="G40">
-        <v>0.1060788013645068</v>
+        <v>0.1060788013645065</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4607,10 +4607,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>27386.62078262542</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F51">
-        <v>3633.430268226519</v>
+        <v>3566.092714086805</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>17003.87696291154</v>
+        <v>17067.87563054785</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4632,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>5747.423572107636</v>
+        <v>5747.423572108144</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <v>59030.9848961415</v>
+        <v>59027.64600964134</v>
       </c>
       <c r="G53">
-        <v>11011.55543647245</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4666,13 +4666,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4682,10 +4682,10 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>27386.62078262542</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F55">
-        <v>3633.430268226519</v>
+        <v>3566.092714086805</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>17003.87696291154</v>
+        <v>17067.87563054785</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5747.423572107636</v>
+        <v>5747.423572108144</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>59030.9848961415</v>
+        <v>59027.64600964134</v>
       </c>
       <c r="G57">
-        <v>11011.55543647245</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
   </sheetData>
